--- a/05_Win32Api/002 事件 消息机制.xlsx
+++ b/05_Win32Api/002 事件 消息机制.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\05_Win32Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A098605-9121-4A03-819C-A17E5C5D1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133129B9-EBDA-4C7C-AF25-B54BDBCC3DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="238">
   <si>
     <t>1、第一个图形界面程序</t>
   </si>
@@ -688,9 +688,6 @@
     <t xml:space="preserve">                     _In_opt_ HINSTANCE hPrevInstance,</t>
   </si>
   <si>
-    <t xml:space="preserve">                     _In_ LPWSTR    lpCmdLine,</t>
-  </si>
-  <si>
     <t xml:space="preserve">                     _In_ int       nCmdShow)</t>
   </si>
   <si>
@@ -840,6 +837,14 @@
   <si>
     <t xml:space="preserve">   触发事件，事件 被封装成 消息</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN  WPARAM wParam,   // 消息不同 wParam、lParam也会对应变化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                     _In_ LPWSTR    lpCmdLine,			 // 命令行启动时的参数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,7 +951,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +988,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,6 +1032,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2068,7 +2082,7 @@
   </sheetPr>
   <dimension ref="B4:K14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2112,7 +2126,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>5</v>
@@ -2123,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2140,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2181,7 +2195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB754A0-7B06-467F-95A7-108932C2F816}">
   <dimension ref="B3:N146"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2414,7 +2430,7 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C17" s="11"/>
@@ -2448,11 +2464,11 @@
       <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>187</v>
+      <c r="B19" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2465,8 +2481,8 @@
       <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>188</v>
+      <c r="B20" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -2501,7 +2517,7 @@
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -2517,7 +2533,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
@@ -2534,7 +2550,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -2551,7 +2567,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -2568,7 +2584,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2585,7 +2601,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2602,7 +2618,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -2635,7 +2651,7 @@
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -2652,7 +2668,7 @@
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -2684,7 +2700,7 @@
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -2701,7 +2717,7 @@
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -2719,7 +2735,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -2942,7 +2958,7 @@
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2959,7 +2975,7 @@
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2991,7 +3007,7 @@
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
@@ -3008,7 +3024,7 @@
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
@@ -3040,7 +3056,7 @@
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -3057,7 +3073,7 @@
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -3074,7 +3090,7 @@
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -3109,10 +3125,10 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -3128,10 +3144,10 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -3192,7 +3208,7 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -3356,7 +3372,7 @@
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -3403,7 +3419,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -3437,7 +3453,7 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="12" t="s">
         <v>180</v>
       </c>
       <c r="D77" s="11"/>
@@ -3454,7 +3470,7 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="12" t="s">
         <v>181</v>
       </c>
       <c r="D78" s="11"/>
@@ -3471,15 +3487,15 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
-      <c r="C79" s="11" t="s">
-        <v>182</v>
+      <c r="C79" s="12" t="s">
+        <v>236</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
@@ -3488,7 +3504,7 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="12" t="s">
         <v>183</v>
       </c>
       <c r="D80" s="11"/>
@@ -3505,7 +3521,7 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -3540,7 +3556,7 @@
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
@@ -3591,7 +3607,7 @@
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
@@ -3626,7 +3642,7 @@
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -3660,7 +3676,7 @@
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -3760,7 +3776,7 @@
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -3794,7 +3810,7 @@
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -3894,7 +3910,7 @@
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -3911,7 +3927,7 @@
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
@@ -3928,7 +3944,7 @@
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -3945,7 +3961,7 @@
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
@@ -4045,7 +4061,7 @@
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
@@ -4062,7 +4078,7 @@
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -4196,7 +4212,7 @@
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -4296,7 +4312,7 @@
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -4413,7 +4429,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
@@ -4447,7 +4463,7 @@
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
@@ -4529,7 +4545,7 @@
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
@@ -5385,7 +5401,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -5599,7 +5615,7 @@
   </sheetPr>
   <dimension ref="B4:I67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A41" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
